--- a/data/trans_camb/P17_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.019237452990529</v>
+        <v>-1.472518547238387</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.769315015875023</v>
+        <v>5.883813993285651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.418261189510757</v>
+        <v>7.292032960413581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.1827567723245869</v>
+        <v>-0.3219981058806243</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5647157444483465</v>
+        <v>-0.8172828063439332</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.272910069037541</v>
+        <v>-3.489048016908211</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9175520788534212</v>
+        <v>1.019990372220651</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.933039709697733</v>
+        <v>5.870738027607532</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.611765218733891</v>
+        <v>5.04610679322981</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.00049144447233</v>
+        <v>11.72210602958923</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.60123837567052</v>
+        <v>18.87509959095575</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.90518581605214</v>
+        <v>19.75215129318032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.83998181820535</v>
+        <v>14.63980929207403</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.94103223888152</v>
+        <v>13.61560685004982</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.545716802249293</v>
+        <v>9.031095081547075</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.90335211047845</v>
+        <v>11.49430861590879</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.36021082738776</v>
+        <v>15.17478304876343</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.79580095447121</v>
+        <v>14.11007156490213</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01764884911592197</v>
+        <v>-0.02514727470604976</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1095973714022262</v>
+        <v>0.1006572403591845</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1190171592809238</v>
+        <v>0.1176777790272775</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.002154614678470153</v>
+        <v>-0.003076503290018164</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.00679336861686816</v>
+        <v>-0.01048299829054216</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05604865481206284</v>
+        <v>-0.04619570316969469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0143712062065923</v>
+        <v>0.01643387319238842</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0907394852596895</v>
+        <v>0.08818278137204176</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.07055934178019867</v>
+        <v>0.07567375538358027</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2137562563900616</v>
+        <v>0.2073458096954295</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3557826909568105</v>
+        <v>0.3368387927998616</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3613137022189111</v>
+        <v>0.3605028376330518</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2105073415800357</v>
+        <v>0.2260187118266614</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1972395643857617</v>
+        <v>0.2079603116275863</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1453000750155143</v>
+        <v>0.1379410143697204</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1821565598006938</v>
+        <v>0.1904377585453896</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2545539123322618</v>
+        <v>0.2514014361144727</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.227499654364256</v>
+        <v>0.2332107586510109</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>11.96359538277621</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9.036835071640137</v>
+        <v>9.036835071640127</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>5.051781221045526</v>
@@ -869,7 +869,7 @@
         <v>0.8156019178643392</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.5803411269278969</v>
+        <v>-0.5803411269278858</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.964883913226636</v>
@@ -878,7 +878,7 @@
         <v>6.329977027120792</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.079860266376711</v>
+        <v>4.079860266376678</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.515713665502702</v>
+        <v>-1.73295902187363</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.175757390454052</v>
+        <v>4.833320715986971</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.901261197526462</v>
+        <v>2.00843125610753</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.899858107443326</v>
+        <v>-1.492017262042362</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.736820823527065</v>
+        <v>-5.314683031594408</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.015786278030157</v>
+        <v>-6.059475994547539</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2803026450822451</v>
+        <v>0.08613427279514757</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.463727476146876</v>
+        <v>1.31086263130457</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.652954447004199</v>
+        <v>-0.2104656849691157</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.10337402525604</v>
+        <v>13.53416623749158</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.13157533158401</v>
+        <v>19.60645288750877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.59710386530284</v>
+        <v>16.24097275645035</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.00161227283212</v>
+        <v>11.49911881105843</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.321326362073047</v>
+        <v>7.440112667994125</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.347780970166024</v>
+        <v>5.624075635982905</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.684526914317013</v>
+        <v>10.07978629672403</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.93390551555003</v>
+        <v>11.07095132426842</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.002517647540678</v>
+        <v>9.405069127813691</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1977350246121589</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1493613540189893</v>
+        <v>0.1493613540189891</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.06932365521438423</v>
@@ -974,7 +974,7 @@
         <v>0.01119219215406091</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.007963798594894487</v>
+        <v>-0.007963798594894335</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.07438764673817357</v>
@@ -983,7 +983,7 @@
         <v>0.09484050446774692</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.06112755293791051</v>
+        <v>0.06112755293791001</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.02121009357922121</v>
+        <v>-0.02668971666551989</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06805425475878751</v>
+        <v>0.07595786474832407</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03039937733784775</v>
+        <v>0.03032328909597602</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02233098232895904</v>
+        <v>-0.0195348286499209</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07429206195770094</v>
+        <v>-0.07096356557483238</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.089251568498647</v>
+        <v>-0.07816408954038945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.004707510568116696</v>
+        <v>0.0009802784117370889</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0210966878761276</v>
+        <v>0.01871370220786614</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.00920412276887571</v>
+        <v>-0.003015961043919632</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2328633551864628</v>
+        <v>0.2432877324953604</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.338260425688054</v>
+        <v>0.3454070701546249</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2768748758932459</v>
+        <v>0.2870323309287723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1734423955429209</v>
+        <v>0.1671222803509124</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1048637971104096</v>
+        <v>0.1059911673022553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07804010225239921</v>
+        <v>0.08101638379369706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1514233845824025</v>
+        <v>0.15543406989105</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1700910762795337</v>
+        <v>0.171878881961206</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1421107148635263</v>
+        <v>0.1466563803158628</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>10.57042507879615</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7.074834124965179</v>
+        <v>7.074834124965212</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.064539025834901</v>
@@ -1092,7 +1092,7 @@
         <v>10.65580850099416</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.040152881855898</v>
+        <v>6.040152881855876</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.700961444810376</v>
+        <v>3.318978327133078</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.294976945692754</v>
+        <v>4.929065275860543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.563195517033869</v>
+        <v>1.121061251442392</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.995000410007281</v>
+        <v>-4.090466386864841</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.340488525427431</v>
+        <v>2.290615168014677</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-6.38733854835852</v>
+        <v>-6.196395277036715</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.545240219393627</v>
+        <v>3.392908601848346</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>5.636938258590401</v>
+        <v>5.991450010711909</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5767192406628818</v>
+        <v>0.6430709146268941</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.89455800938578</v>
+        <v>14.24939010801195</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.01600126624001</v>
+        <v>16.13561692557468</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.82803241478679</v>
+        <v>12.82982685803418</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.12378468252099</v>
+        <v>12.22139850804299</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>19.33482568499596</v>
+        <v>19.67391719952728</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.10828104451509</v>
+        <v>9.716926329635811</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.38372036529608</v>
+        <v>12.79679352256562</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.00680563225652</v>
+        <v>15.55911028378247</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.27870806218383</v>
+        <v>10.67070804747435</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1618030056865302</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1082954959350953</v>
+        <v>0.1082954959350959</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.05366076037614122</v>
@@ -1197,7 +1197,7 @@
         <v>0.1571888648596728</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.08910114844774369</v>
+        <v>0.08910114844774338</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05381604742353522</v>
+        <v>0.04828177342033479</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0616688816657077</v>
+        <v>0.07162767500087236</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.02285141732988922</v>
+        <v>0.01671887185747732</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0507956358242113</v>
+        <v>-0.04812977712192399</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04082063671047802</v>
+        <v>0.02878104277534895</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08078901334098801</v>
+        <v>-0.07804003653245029</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05018891497958715</v>
+        <v>0.04856355378004108</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08035028663602101</v>
+        <v>0.08474164044139224</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.008215146301435414</v>
+        <v>0.008913568690855538</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2403150661577979</v>
+        <v>0.2267962311231262</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2560141411365122</v>
+        <v>0.2603790645653585</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2045101186436443</v>
+        <v>0.2031643839897972</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1870705136292241</v>
+        <v>0.1796515546300368</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2769945271610549</v>
+        <v>0.2812016382294242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1459331768989258</v>
+        <v>0.1392092907158593</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1920333649082755</v>
+        <v>0.1971206479013672</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2297650203996619</v>
+        <v>0.2405473086722844</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1719951392038697</v>
+        <v>0.1635478707708103</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>8.752112552095015</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1230565549362295</v>
+        <v>0.1230565549362406</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>6.801848265898213</v>
@@ -1297,7 +1297,7 @@
         <v>5.47565747564831</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.23129240538452</v>
+        <v>-0.2312924053845089</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.748988214752317</v>
@@ -1306,7 +1306,7 @@
         <v>7.899312291394378</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.6401844098274712</v>
+        <v>0.640184409827449</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.362176895376457</v>
+        <v>3.239550977458117</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.03871886619029</v>
+        <v>4.687811491443324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.332964818906069</v>
+        <v>-4.168144420291561</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.737503771187538</v>
+        <v>2.749868527981637</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.103249709394262</v>
+        <v>1.198948361619446</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.453528702221008</v>
+        <v>-4.297531337101175</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.902604214748726</v>
+        <v>4.686176447083181</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.043734460521979</v>
+        <v>4.849633133832012</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.719526689929745</v>
+        <v>-2.405639324138736</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.64529673843894</v>
+        <v>11.75879665885321</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.3455629439915</v>
+        <v>12.50529450292047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.934609664478402</v>
+        <v>4.022825048141725</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.33191082361003</v>
+        <v>10.97066194298192</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.67722462577318</v>
+        <v>9.476648819214581</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.02803524638866</v>
+        <v>4.220463784023692</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>10.5307984284599</v>
+        <v>10.63223193557115</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>10.54177917928198</v>
+        <v>10.86972792627746</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.545236928808442</v>
+        <v>3.58542935570423</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1333853132996624</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.001875425737048712</v>
+        <v>0.001875425737048881</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.0896864068418655</v>
@@ -1402,7 +1402,7 @@
         <v>0.07219979406918536</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.003049727656047681</v>
+        <v>-0.003049727656047535</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1117151059441193</v>
@@ -1411,7 +1411,7 @@
         <v>0.1138822882500685</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.009229368684739364</v>
+        <v>0.009229368684739043</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06522469082937156</v>
+        <v>0.04920891507338451</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.07557985188165933</v>
+        <v>0.06933654308304094</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.06398556014421486</v>
+        <v>-0.06243294036765274</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.03512341634965399</v>
+        <v>0.03556712253297947</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01491005879032578</v>
+        <v>0.01579150713296184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0569141346101148</v>
+        <v>-0.05443199755059411</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06885009294407747</v>
+        <v>0.06615913925417459</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.07154777166402784</v>
+        <v>0.06694621752168008</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.03857603640375291</v>
+        <v>-0.03388896473218849</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1837251356944532</v>
+        <v>0.1849437634170341</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1943283846804293</v>
+        <v>0.1980371429270665</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.06102401492391707</v>
+        <v>0.0633591242475845</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1547586685769513</v>
+        <v>0.1503636447434241</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1326563724699595</v>
+        <v>0.1299817774026764</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05416683675514554</v>
+        <v>0.05730214671599882</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1560400161079071</v>
+        <v>0.1570979269873588</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1550756039304393</v>
+        <v>0.1613935163075937</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.0525811967811989</v>
+        <v>0.05262440832728877</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>14.99748814572661</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7.63454359782183</v>
+        <v>7.634543597821841</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.608855073238885</v>
@@ -1511,7 +1511,7 @@
         <v>6.137206366246184</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.427706729206337</v>
+        <v>3.427706729206348</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>9.462832875112548</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.243195538941738</v>
+        <v>6.674468204293952</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.68698770549279</v>
+        <v>8.484472236274325</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7906360374525393</v>
+        <v>0.3787457149529058</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.804837900717782</v>
+        <v>3.394459541676047</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.59289301905722</v>
+        <v>2.05727826696647</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7518478224729834</v>
+        <v>-0.6078737201951537</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.011118286202072</v>
+        <v>5.691121725049938</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.716281348779327</v>
+        <v>4.882091749196151</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.23395047601472</v>
+        <v>0.7592039154954844</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.73768659641167</v>
+        <v>19.70841181484538</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.24217075778014</v>
+        <v>21.8603925449468</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.47493182894642</v>
+        <v>14.54377354811226</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11.85447239427833</v>
+        <v>11.80527405277037</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.66482055108339</v>
+        <v>11.12863054117256</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.806317369211822</v>
+        <v>8.423439090926887</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.5188943722061</v>
+        <v>13.25294207750733</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.13183704341958</v>
+        <v>12.52352155180962</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.571974309963757</v>
+        <v>8.300241059438761</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2423832494576686</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1233863609282848</v>
+        <v>0.1233863609282849</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.09828423787946436</v>
@@ -1616,7 +1616,7 @@
         <v>0.07927482447878206</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04427598374678354</v>
+        <v>0.04427598374678368</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1323461587702073</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09446425492790589</v>
+        <v>0.1017018533271825</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1352347495362228</v>
+        <v>0.1297224608984975</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.0109880203551171</v>
+        <v>0.008420212529641913</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.03514867507382561</v>
+        <v>0.04196043364220262</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.02013750257527358</v>
+        <v>0.02647398982357727</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.009777728829444179</v>
+        <v>-0.007363066667966297</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07991559970948144</v>
+        <v>0.07686695497253276</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07754078723549247</v>
+        <v>0.0657520663795552</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.01650140130608477</v>
+        <v>0.01029651153248974</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3519154399721982</v>
+        <v>0.3491221120409667</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3749206478536147</v>
+        <v>0.3847001777386583</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2542129386950822</v>
+        <v>0.2513799508594385</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1601894711991235</v>
+        <v>0.1593109191142336</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1427735118038803</v>
+        <v>0.1513040558659381</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1044187367135935</v>
+        <v>0.1161164771121077</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1961071033316736</v>
+        <v>0.1945396850692258</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1917686298464181</v>
+        <v>0.1814388908104997</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1231694446248667</v>
+        <v>0.1201719595568141</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>18.28373952174631</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1.236327583443309</v>
+        <v>1.236327583443297</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3.841758828584618</v>
@@ -1734,7 +1734,7 @@
         <v>6.682923989689415</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.5560048666245376</v>
+        <v>-0.5560048666244932</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.797745986842584</v>
+        <v>2.949983840162013</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>10.49110175428686</v>
+        <v>10.59958049566359</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-11.00807436154066</v>
+        <v>-9.693065569621362</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.7087991456689287</v>
+        <v>0.5192969035296747</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.9305214806118379</v>
+        <v>0.9431237011024431</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.33887485097258</v>
+        <v>-4.150041696314646</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.243583018108587</v>
+        <v>2.032632777427035</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.740336148074418</v>
+        <v>3.45223963496672</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.042421798139572</v>
+        <v>-4.534265969573228</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.17063199158459</v>
+        <v>19.76247690051905</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>25.83605449226276</v>
+        <v>26.16151669511262</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.04704722707545</v>
+        <v>14.53237558503852</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.264711886313719</v>
+        <v>6.773609534863757</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.268979984089066</v>
+        <v>7.450342805480887</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.342930857627154</v>
+        <v>3.624438507162436</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>8.320145721937328</v>
+        <v>8.353775698687981</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.937081435639696</v>
+        <v>9.693769771526338</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.328046394784506</v>
+        <v>3.156307359461483</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>0.3492303630641491</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.02361459647347296</v>
+        <v>0.02361459647347275</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.04848673473104845</v>
@@ -1839,7 +1839,7 @@
         <v>0.09023737496010983</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.007507555032295974</v>
+        <v>-0.007507555032295375</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.05005017216310226</v>
+        <v>0.05566037738918585</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.1844562108146525</v>
+        <v>0.1833300491909448</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2063730233627831</v>
+        <v>-0.1746435352694714</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.008834592765899645</v>
+        <v>0.006456865130798356</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01189942296543671</v>
+        <v>0.01153977546647203</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.05378406311303031</v>
+        <v>-0.05140860465842125</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02968540556426605</v>
+        <v>0.02762305072752556</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.04964165303347935</v>
+        <v>0.04664675659125676</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.06633390736020486</v>
+        <v>-0.05994710344900279</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3924486832795934</v>
+        <v>0.4130788721183219</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5430105523325144</v>
+        <v>0.5526155388235675</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.263991278565062</v>
+        <v>0.2941155142047032</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.0936848433805659</v>
+        <v>0.08670357687110045</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.09449171082762853</v>
+        <v>0.09535591113173916</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.04249883367135093</v>
+        <v>0.04662107992347881</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1152877271582205</v>
+        <v>0.1159834669376808</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1380820530221803</v>
+        <v>0.1342951743393573</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.04581213725862816</v>
+        <v>0.04402833898643273</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.312373141582635</v>
+        <v>6.148853338219628</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>9.628134449137962</v>
+        <v>9.485813878279693</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.401175388728263</v>
+        <v>3.14957649021694</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3.634576038481764</v>
+        <v>3.483907685010438</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.879615973823361</v>
+        <v>3.046478141358645</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.578805903563853</v>
+        <v>-1.504688520479189</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.616130194608186</v>
+        <v>5.718804585409858</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>6.781113320701766</v>
+        <v>6.802262393968361</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.494458036160396</v>
+        <v>1.328018220504133</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.91333118262908</v>
+        <v>10.8375724997364</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>14.1018178175551</v>
+        <v>14.07429502280156</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.464163669676648</v>
+        <v>8.222925029809998</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.607351843307908</v>
+        <v>7.57632693047882</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>6.855735479151853</v>
+        <v>6.808773015854988</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.303685187929494</v>
+        <v>2.373748838014162</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.757768613490185</v>
+        <v>8.935655797582218</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.848110303947459</v>
+        <v>9.628206926562907</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.699834353450749</v>
+        <v>4.588971012336406</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.09964275420795012</v>
+        <v>0.09612725786472849</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.150051876898549</v>
+        <v>0.1487547946993032</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.05402039308232123</v>
+        <v>0.04976167311900405</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.04745734242602972</v>
+        <v>0.04457604991047189</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.03734729748056536</v>
+        <v>0.0393780625050549</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.0202356730833477</v>
+        <v>-0.01942414759616761</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07953077753155714</v>
+        <v>0.08120517704873022</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.09552703459907858</v>
+        <v>0.09669105795697731</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.02125699639734156</v>
+        <v>0.01866482567101971</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.1790860158041409</v>
+        <v>0.1767131829023521</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2307603974706336</v>
+        <v>0.229691676402491</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.1385610043523045</v>
+        <v>0.1348314040714177</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1007505571858976</v>
+        <v>0.1004577529274333</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.09099847400861842</v>
+        <v>0.09006162467907002</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.03057951144980986</v>
+        <v>0.03142471892218568</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1275667272033409</v>
+        <v>0.1295686371958305</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1429069946203944</v>
+        <v>0.1400534341377211</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.06851460353661162</v>
+        <v>0.06628712357819963</v>
       </c>
     </row>
     <row r="46">
